--- a/biology/Biologie cellulaire et moléculaire/CD161/CD161.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CD161/CD161.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">NKR-P1, aussi nommé CD 161, est un récepteur membranaire de 44 kDa dont le gène codant est situé sur le chromosome 12. Il serait principalement retrouvé sur des lymphocytes T ainsi que certains types de lymphocytes NK (notamment immatures). La famille moléculaire de cette protéine est la lectine de type C. Le CD 161 est connu pour ses fonctions de régulations (négatives ou positives, selon le type cellulaire qui l'exprime) de l'activité et la cytotoxicité des cellules NK.
  Portail de la biologie cellulaire et moléculaire                     
